--- a/nuon/instagram_comments_orcite_official.xlsx
+++ b/nuon/instagram_comments_orcite_official.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>18303434335080411</t>
+          <t>1.830343433508041e+16</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4490,6 +4490,3518 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>C8iq9HdPP0s</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>17858317140148025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>@jiyoung7642 😭😭😭😭🙏🏻</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>@jiyoung7642</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>1.806680128955289e+16</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1719271464</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>C8iq9HdPP0s</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>18066801289552886</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>악😢😢 아쉽다..비치볼 탐나는데 이미 사버렸네요</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1719214166</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>446757424</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>jiyoung7642</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>⠀⠀⠀⠀⠀⠀엄마사람◡̈</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>C8iq9HdPP0s</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>18120913999371528</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>@orcite_official #orcite 오르시떼 #2024 #신상 #잠옷 #홈웨어 #파자마 #패션 #옷스타그램 #휴양룩 #바캉스 #아동잠옷 #패밀리잠옷 #래쉬가드 #수영복 #beach #beachwear #스윔웨어 #swimwear #magic #island #꿈 #dream #유토피아 #섬 #매직 #utopia</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>#orcite, #2024, #신상, #잠옷, #홈웨어, #파자마, #패션, #옷스타그램, #휴양룩, #바캉스, #아동잠옷, #패밀리잠옷, #래쉬가드, #수영복, #beach, #beachwear, #스윔웨어, #swimwear, #magic, #island, #꿈, #dream, #유토피아, #섬, #매직, #utopia</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>@orcite_official</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>1.823946306126912e+16</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1719110503</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>C8iq9HdPP0s</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>18239463061269114</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>🌅💙✨🌊🏝️🏕️♥️🧳</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1719110473</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>C7-qeAjv4Dm</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>18036597493799016</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>@orcite_official #orcite 오르시떼 #2024 #신상 #잠옷 #홈웨어 #파자마 #소통 #커플잠옷 #패션 #옷스타그램 #데일리룩 #가족잠옷 #여성잠옷 #아동잠옷 #패밀리잠옷 #strolling #strollingwear #데이웨어 #magic #island #꿈 #dream #유토피아 #섬 #매직  #utopia</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>#orcite, #2024, #신상, #잠옷, #홈웨어, #파자마, #소통, #커플잠옷, #패션, #옷스타그램, #데일리룩, #가족잠옷, #여성잠옷, #아동잠옷, #패밀리잠옷, #strolling, #strollingwear, #데이웨어, #magic, #island, #꿈, #dream, #유토피아, #섬, #매직, #utopia</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>@orcite_official</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1.807171477346448e+16</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1717902289</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>C7-qeAjv4Dm</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>18071714773464473</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>🌅💙✨🌊🏝️🏕️💛🧳</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1717902272</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>C78fNppvUz4</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>17856784272187078</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>@orcite_official #orcite 오르시떼 #2024 #신상 #잠옷 #홈웨어 #파자마 #등원복 #커플잠옷 #패션 #옷스타그램 #데일리룩 #가족잠옷 #휴양룩 #바캉스 #아동잠옷 #패밀리잠옷 #strolling #strollingwear #데이웨어 #magic #island #꿈 #dream #유토피아 #섬 #매직  #utopia</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>#orcite, #2024, #신상, #잠옷, #홈웨어, #파자마, #등원복, #커플잠옷, #패션, #옷스타그램, #데일리룩, #가족잠옷, #휴양룩, #바캉스, #아동잠옷, #패밀리잠옷, #strolling, #strollingwear, #데이웨어, #magic, #island, #꿈, #dream, #유토피아, #섬, #매직, #utopia</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>@orcite_official</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1.806969980852169e+16</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1717829235</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>C78fNppvUz4</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>18069699808521694</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>🌅💙✨🌊🏝️🏕️💛🧳</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1717829143</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>C70I8Nfy_Zt</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>17927330933894492</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>@orcite_official #orcite 오르시떼 #2024 #신상 #잠옷 #홈웨어 #파자마 #소통 #커플잠옷 #패션 #옷스타그램 #데일리룩 #가족잠옷 #여성잠옷 #아동잠옷 #패밀리잠옷 #strolling #strollingwear #데이웨어 #magic #island #꿈 #dream #유토피아 #섬 #매직  #utopia</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>#orcite, #2024, #신상, #잠옷, #홈웨어, #파자마, #소통, #커플잠옷, #패션, #옷스타그램, #데일리룩, #가족잠옷, #여성잠옷, #아동잠옷, #패밀리잠옷, #strolling, #strollingwear, #데이웨어, #magic, #island, #꿈, #dream, #유토피아, #섬, #매직, #utopia</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>@orcite_official</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1.797523593258115e+16</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1717549146</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>C70I8Nfy_Zt</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>17975235932581150</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>🌅💙✨🌊🏝️🏕️🩵🧳</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1717549129</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>C7krSIfI5d0</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>18074275243506466</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>오르시떼 잠옷 이번어ㅣ 엄청 구매했어요😍</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1719320391</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2283794047</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ygim8127</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>#김윤희</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>C7krSIfI5d0</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>18033462736831166</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>@maisie_is_adorable 감사합니다~💙😆</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>@maisie_is_adorable</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1.7997296510618824e+16</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1717083407</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>C7krSIfI5d0</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>17962598252757613</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>@s_hyejin_in 감사합니다~💙😆</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>@s_hyejin_in</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>1.7917461404925184e+16</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1717083400</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>C7krSIfI5d0</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>17917461404925183</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>너무 귀여워요☺️💙💙</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1717035417</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2898056858</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>s_hyejin_in</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>신혜진 👶🏻또치</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>C7krSIfI5d0</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>17997296510618824</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>쥔짜 귀엽다 😍😍😍</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>2</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1717031889</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>19320122781</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>maisie_is_adorable</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Jieon Gim | 혼혈키즈모델 메이지 𝓜𝓪𝓲𝓼𝓲𝓮 🇰🇷🇺🇸</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>C7krSIfI5d0</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>18051634057651982</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>@orcite_official #orcite #쇼핑백 #집들이선물추천 #오르시떼잠옷 #잠옷선물추천 #잠옷선물 #패밀리잠옷 #패밀리잠옷세트 #커플잠옷추천 #커플파자마 #패밀리파자마 #가족파자마세트 #가족파자마 #잠옷맛집 #파자마추천</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>#orcite, #쇼핑백, #집들이선물추천, #오르시떼잠옷, #잠옷선물추천, #잠옷선물, #패밀리잠옷, #패밀리잠옷세트, #커플잠옷추천, #커플파자마, #패밀리파자마, #가족파자마세트, #가족파자마, #잠옷맛집, #파자마추천</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>@orcite_official</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1.7969666858723356e+16</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1717031807</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>C7krSIfI5d0</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>17969666858723357</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>🐶🛍️💙</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>1717031635</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>C7QFckXoBeI</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>17993792777480452</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>수영복 바지쪽에 안감이 따로없나요??</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1716883742</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>64679965952</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>peekaboo_min</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>김감자🤍</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>C7QFckXoBeI</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>18097146937417295</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>@orcite_official 감사합니다😍</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>@orcite_official</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1.7996634257414152e+16</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>1716542361</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>1502787949</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>bin._.kk</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>ᴇᴜɴʙɪɴ ᴋɪᴍ</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>C7QFckXoBeI</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>17996634257414152</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>@bin._.kk 수영복 상세페이지 하단보면 모델 인포 보실 수 있습니다! 감사합니다!😀</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>@bin._.kk</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1.8042571384678084e+16</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1716539659</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>C7QFckXoBeI</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>18101674942408710</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>오 구경하러 가야겠어요 ❤️❤️</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1716520481</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>4473110521</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>hana.jul</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>김하나</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>C7QFckXoBeI</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>18051054922635749</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>@anniemom89 감사합니다!💙🌊😆</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>@anniemom89</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1.804076602984985e+16</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1716419947</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>C7QFckXoBeI</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>18040766029849852</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>너무 이뻐요ㅠㅠ당장 사러갑니다!</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1716394026</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>1542435590</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>anniemom89</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>권정아 / 애니동생 애플이와 지안이네 🤎</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>C7QFckXoBeI</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>18008197301397787</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>흐앙 귀여워 😍😍😍😍</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>1716385404</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2909754179</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>chaei_soi_mom</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>박지영 Park Jiyoung</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>C7QFckXoBeI</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>18042571384678083</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>@orcite_official 그렇군요ㅠㅠ 수영복 모델 착용 사이즈만 있어두 참고하는데 도움 될 것 같아요ㅎㅎ🙏</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>@orcite_official</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>1.805997913057801e+16</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1716363931</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1502787949</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>bin._.kk</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>ᴇᴜɴʙɪɴ ᴋɪᴍ</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>C7QFckXoBeI</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>18059979130578009</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>@bin._.kk 안녕하세요 오르시떼입니다. 나이 적혀 있는 대로 구매해 주시면 됩니다. 6~7세 적혀있는 사이즈로 구매해 주세요! 사이즈 체크 시 헷갈릴 수 있는 고객님들을 위해 앞에 사이즈 표기는 빼고 착용할 나이만 적어 놓았습니다. 혼란을 드려 죄송합니다!🙏🏻 감사합니다.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>@bin._.kk</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1.828132565820592e+16</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1716363321</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>C7QFckXoBeI</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>18003420395603578</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>😍🫶🏻❤️</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1716357650</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>55106914065</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>alice.oliva18</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Alice ❁</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>C7QFckXoBeI</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>18030318314053920</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>✨🏖️🩷</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>2</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1716352114</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>11803292375</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>annegalanphoto</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Anne Galan Photo</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>C7QFckXoBeI</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>18281325658205916</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>래쉬가드 사이즈 크게나왔나요~? 평소 잠옷 65입는데 래쉬가드는 60이 6-7세더라구용.. 사이즈 추천좀 해주세용😢</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1716345151</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1502787949</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>bin._.kk</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>ᴇᴜɴʙɪɴ ᴋɪᴍ</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>C7QFckXoBeI</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>18434899774053327</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>@orcite_official #아동수영복세트 #아동래쉬가드세트 #아동래쉬가드 #키즈비치웨어 #아동비치가운 #아동비치타올 #아동수영복 #아동수영복세트 #아동수영복추천 #아동래쉬가드추천</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>#아동수영복세트, #아동래쉬가드세트, #아동래쉬가드, #키즈비치웨어, #아동비치가운, #아동비치타올, #아동수영복, #아동수영복추천, #아동래쉬가드추천</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>@orcite_official</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1.843114580501869e+16</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>1716343008</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>C7QFckXoBeI</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>18431145805018692</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>💛💙💛💙</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1716342901</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>C7QFckXoBeI</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>18058202422596807</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>@ssminn 저희 내부적으로도 지금 다들 너무 예쁘다고 난리인 상황입니다..👀💙💛</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>@ssminn</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>1.7938772918824528e+16</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1716341229</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>C7QFckXoBeI</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>17938772918824529</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>😍 루이 래쉬가드 심장폭행 넘 귀여워요 바로 구매하러 가야겠어용</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1716340104</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>514663495</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>ssminn</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>이승민</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>C647ImWoyLZ</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>18023635498967443</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>@orcite_official #캡슐세제추천 #건조기시트추천 #건조기시트 #캡슐세제 #홈웨어브랜드 #잠옷맛집 #루미와까미유</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>#캡슐세제추천, #건조기시트추천, #건조기시트, #캡슐세제, #홈웨어브랜드, #잠옷맛집, #루미와까미유</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>@orcite_official</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>1.805368716171728e+16</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>1715563816</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>C647ImWoyLZ</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>18053687161717277</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>💙🧡🩷</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>1715563739</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>C6sYjslvQfd</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>18047380387661623</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>♥️🏵️♥️🏵️♥️🏵️♥️</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>1715141292</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>C6cj5i-v-fL</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>17937494501742746</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>@orcite_official #orcite 오르시떼 #2024 #신상 #잠옷 #홈웨어 #파자마 #등원복 #커플잠옷 #패션 #옷스타그램 #데일리룩 #가족잠옷 #휴양룩 #바캉스 #아동잠옷 #패밀리잠옷 #strolling #strollingwear #데이웨어 #magic #island #꿈 #dream #유토피아 #섬 #매직  #utopia</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>#orcite, #2024, #신상, #잠옷, #홈웨어, #파자마, #등원복, #커플잠옷, #패션, #옷스타그램, #데일리룩, #가족잠옷, #휴양룩, #바캉스, #아동잠옷, #패밀리잠옷, #strolling, #strollingwear, #데이웨어, #magic, #island, #꿈, #dream, #유토피아, #섬, #매직, #utopia</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>@orcite_official</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1.7907988403950896e+16</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1714610631</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>C6cj5i-v-fL</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>17907988403950896</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>🌅💙✨🌊🏝️🏕️🩵🧳</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>1714610617</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>C6KtrhPvzvw</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>17979325271679309</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>@toolazy.baechu 감사합니다💙💙💙💙💙💙</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>@toolazy.baechu</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>1.830492020515213e+16</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>1714625199</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>C6KtrhPvzvw</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>18043904503779282</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>@schwabros 사랑스러움이 배가 될거에요!💙💙💙💙</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>@schwabros</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>1.8009651980458128e+16</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>1714625188</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>C6KtrhPvzvw</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>18220084042302721</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>@kokor_vvv 갓 오르시떼 제품 퀄리티..🥹💙</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>@kokor_vvv</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>1.800296893729088e+16</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>1714625163</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>C6KtrhPvzvw</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>18009651980458129</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>퍼피 PJ 라뇨 🥹🥹🥹🩵🩵 저희집 털애기들도 사줘야 겠네요~</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>1714522257</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>4569731552</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>schwabros</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>키즈모델 카이&amp;지오 / Dayoung Schwab</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>C6KtrhPvzvw</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>18002968937290879</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>지렁이댄스 오만번했는데,,, 왜 새 옷 이..죠??😱😱</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>1714374476</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>44441435335</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>kokor_vvv</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>꼬꼬🐶</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>C6KtrhPvzvw</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>18304920205152127</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>원단 너무 좋아요 진짜로....👍</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>2</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1714155198</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>52368663589</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>toolazy.baechu</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>안배추🥬</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>C6KtrhPvzvw</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>18031736797943916</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>@mkl_0918 다들 너무 사랑스럽죠😍 감사합니다!🙏</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>@mkl_0918</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>1.7996704733349228e+16</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>1714019113</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>C6KtrhPvzvw</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>17996704733349227</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>꺄아 너무 귀여워요🥰잠옷도 너무 너무 예쁜데 마음씨까지 멋진 오르시떼💗💗너무 좋은 일을 해주셨네요🫶역시 오르시떼 짱이에요👍🏻🙌🏻</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>1714018036</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>4143242328</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>mkl_0918</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>꾸꾸기</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>C54fCDGPZQK</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>18020743466277915</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>@orcite_official #orcite 오르시떼 #2024 #신상 #잠옷 #홈웨어 #파자마 #소통 #커플잠옷 #패션 #옷스타그램 #데일리룩 #가족잠옷 #여성잠옷 #여행템 #패밀리잠옷 #strolling #strollingwear #데이웨어 #magic #island #꿈 #dream #유토피아 #섬 #매직  #utopia</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>#orcite, #2024, #신상, #잠옷, #홈웨어, #파자마, #소통, #커플잠옷, #패션, #옷스타그램, #데일리룩, #가족잠옷, #여성잠옷, #여행템, #패밀리잠옷, #strolling, #strollingwear, #데이웨어, #magic, #island, #꿈, #dream, #유토피아, #섬, #매직, #utopia</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>@orcite_official</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>1.80127774310991e+16</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1713400996</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>C54fCDGPZQK</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>18012777431099099</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>🌅💙✨🌊🏝️🏕️🧡🧳</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1713400950</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>C5ms5z6PPo1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>18042232429689673</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>@orcite_official #orcite 오르시떼 #2024 #신상 #잠옷 #홈웨어 #파자마 #소통 #커플잠옷 #패션 #옷스타그램 #데일리룩 #가족잠옷 #여성잠옷 #아동잠옷 #패밀리잠옷 #strolling #strollingwear #데이웨어 #magic #island #꿈 #dream #유토피아 #섬 #매직  #utopia</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>#orcite, #2024, #신상, #잠옷, #홈웨어, #파자마, #소통, #커플잠옷, #패션, #옷스타그램, #데일리룩, #가족잠옷, #여성잠옷, #아동잠옷, #패밀리잠옷, #strolling, #strollingwear, #데이웨어, #magic, #island, #꿈, #dream, #유토피아, #섬, #매직, #utopia</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>@orcite_official</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1.835235176509886e+16</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>1712803235</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>C5ms5z6PPo1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>18352351765098860</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>🌅💙✨🌊🏝️🏕️🩵🧳</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1712803222</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>C5E-AQRSkJF</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>18298751755159750</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>@orcite_official #오르시떼 #오르시떼잠옷 #커플잠옷 #커플잠옷세트 #잠옷추천 #커플잠옷추천 #잠옷브랜드 #패밀리잠옷 #커플파자마 #커플파자마세트 #커플파자마추천 #파자마추천 #우정룩</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>#오르시떼, #오르시떼잠옷, #커플잠옷, #커플잠옷세트, #잠옷추천, #커플잠옷추천, #잠옷브랜드, #패밀리잠옷, #커플파자마, #커플파자마세트, #커플파자마추천, #파자마추천, #우정룩</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>@orcite_official</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>17995623221612773</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1711845870</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>C5E-AQRSkJF</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>17995623221612773</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>💙</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1711845579</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>1498227372</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>orcite_official</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>ORCITE 오르시떼</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
